--- a/docs/import student mapping.xlsx
+++ b/docs/import student mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\millions\xampp8.1.25\htdocs\projects\gitf-kpweb\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF70064-9085-48FD-96AA-362DEF3033E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D03A06-06A4-4AD2-AE3E-6EAB514507F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{083D8D68-227A-408D-B98D-89A7A0077D75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>BIL</t>
   </si>
@@ -120,19 +120,12 @@
     <t>TAHUN KEMASUKAN</t>
   </si>
   <si>
-    <t xml:space="preserve">TARIKH KEMASUKAN
-SEMESTER 1 </t>
-  </si>
-  <si>
     <t>PEMBIAYAAN SENDIRI / TAJAAN</t>
   </si>
   <si>
     <t>KAMPUS</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
     <t>MATRIK</t>
   </si>
   <si>
@@ -167,6 +160,24 @@
   </si>
   <si>
     <t>mapping method</t>
+  </si>
+  <si>
+    <t>keyword (not case sensitive)</t>
+  </si>
+  <si>
+    <t>TELEFON</t>
+  </si>
+  <si>
+    <t>only trim and accept as is</t>
+  </si>
+  <si>
+    <t>need to further process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARIKH KEMASUKAN SEMESTER 1 </t>
+  </si>
+  <si>
+    <t>to be process in backend\modules\postgrad\models\StudentImport</t>
   </si>
 </sst>
 </file>
@@ -530,28 +541,33 @@
   <dimension ref="C1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F16" sqref="F16:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.25">
       <c r="AC1" s="1"/>
     </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
@@ -559,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
@@ -567,7 +583,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.25">
@@ -577,13 +596,19 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.25">
@@ -593,6 +618,9 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -601,6 +629,9 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -609,197 +640,293 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
